--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.04447912923057732</v>
+        <v>0.3066410164048881</v>
       </c>
       <c r="E2">
-        <v>0.04447912923057732</v>
+        <v>0.3066410164048881</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3.257232397290268E-18</v>
+        <v>2.67179446293341E-13</v>
       </c>
       <c r="E3">
-        <v>3.257232397290268E-18</v>
+        <v>2.67179446293341E-13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7658830327811398</v>
+        <v>0.5444571126839456</v>
       </c>
       <c r="E4">
-        <v>0.7658830327811398</v>
+        <v>0.5444571126839456</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1062908117320145</v>
+        <v>0.9878328960091652</v>
       </c>
       <c r="E5">
-        <v>0.1062908117320145</v>
+        <v>0.9878328960091652</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.01384861092279262</v>
+        <v>0.3422016693524062</v>
       </c>
       <c r="E6">
-        <v>0.01384861092279262</v>
+        <v>0.3422016693524062</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3982679944539436</v>
+        <v>0.09375203912300566</v>
       </c>
       <c r="E7">
-        <v>0.6017320055460564</v>
+        <v>0.9062479608769943</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.8147387541576043</v>
+        <v>0.04163085272417932</v>
       </c>
       <c r="E9">
-        <v>0.1852612458423957</v>
+        <v>0.9583691472758207</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.6147430192987082</v>
+        <v>0.599051495102949</v>
       </c>
       <c r="E10">
-        <v>0.3852569807012918</v>
+        <v>0.400948504897051</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01129304781007088</v>
+        <v>0.002086354461286365</v>
       </c>
       <c r="E11">
-        <v>0.9887069521899291</v>
+        <v>0.9979136455387136</v>
       </c>
       <c r="F11">
-        <v>0.7719388604164124</v>
+        <v>1.821110963821411</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
